--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/NotificationType.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/NotificationType.xlsx
@@ -46,10 +46,10 @@
     <t>Khoá chính</t>
   </si>
   <si>
-    <t>Là duy nhất, theo định dạng là : NA00001</t>
+    <t>Là duy nhất, theo định dạng là : NAxxxxx</t>
   </si>
   <si>
-    <t>NA00001</t>
+    <t>none</t>
   </si>
   <si>
     <t>Mã loại thông báo</t>
@@ -75,10 +75,10 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,31 +106,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,39 +136,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,15 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,6 +199,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -251,7 +237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +259,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +313,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,25 +397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,133 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,39 +464,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,11 +500,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,160 +565,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
